--- a/src/excels/immune/top_genes_cluster_0.4.xlsx
+++ b/src/excels/immune/top_genes_cluster_0.4.xlsx
@@ -1711,36 +1711,36 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>mt-Co1</t>
+          <t>Atp8b4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.956467151641846</v>
+        <v>4.109916210174561</v>
       </c>
       <c r="C3" t="n">
-        <v>3.448221206665039</v>
+        <v>3.391626119613647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1324885616207228</v>
+        <v>0.08913864080520272</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Atp8b4</t>
+          <t>Rps14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.109916210174561</v>
+        <v>3.746775150299072</v>
       </c>
       <c r="C4" t="n">
-        <v>3.391626119613647</v>
+        <v>2.923118591308594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08913864080520272</v>
+        <v>0.2879875309582878</v>
       </c>
       <c r="E4" t="n">
         <v>0.4838709677419355</v>
@@ -1749,36 +1749,36 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Rps14</t>
+          <t>Lrrc8c</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.746775150299072</v>
+        <v>3.23970627784729</v>
       </c>
       <c r="C5" t="n">
-        <v>2.923118591308594</v>
+        <v>2.882035970687866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2879875309582878</v>
+        <v>0.9262464828719472</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Lrrc8c</t>
+          <t>Tpt1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.23970627784729</v>
+        <v>3.002335786819458</v>
       </c>
       <c r="C6" t="n">
-        <v>2.882035970687866</v>
+        <v>2.842801332473755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9262464828719472</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0.4193548387096774</v>
